--- a/CHPOUTSRCMES.Web/Data/Excel/MES_USERS.xlsx
+++ b/CHPOUTSRCMES.Web/Data/Excel/MES_USERS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\C__YFY\CHPOUTSRCMES\CHPOUTSRCMES.Web\Data\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Safe Area\Projects\中華紙漿\CHPOUTSRCMES\CHPOUTSRCMES.Web\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>系統管理員</t>
   </si>
@@ -88,6 +88,74 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>組織ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>組織</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倉庫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力順</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台中轉運站花蓮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -418,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
@@ -429,14 +497,15 @@
     <col min="1" max="1" width="18.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.5" style="1" customWidth="1"/>
-    <col min="6" max="15" width="6.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="15" width="6.75" style="1" customWidth="1"/>
     <col min="16" max="26" width="8" style="1" customWidth="1"/>
     <col min="27" max="16384" width="11.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" customHeight="1">
+    <row r="1" spans="1:8" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -452,8 +521,17 @@
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" customHeight="1">
+    <row r="2" spans="1:8" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,8 +547,17 @@
       <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F2" s="1">
+        <v>265</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="16.5" customHeight="1">
+    <row r="3" spans="1:8" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -486,8 +573,17 @@
       <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F3" s="1">
+        <v>265</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" ht="16.5" customHeight="1">
+    <row r="4" spans="1:8" ht="16.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -503,19 +599,72 @@
       <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F4" s="1">
+        <v>265</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" ht="16.5" customHeight="1"/>
-    <row r="6" spans="1:5" ht="16.5" customHeight="1"/>
-    <row r="7" spans="1:5" ht="16.5" customHeight="1"/>
-    <row r="8" spans="1:5" ht="16.5" customHeight="1"/>
-    <row r="9" spans="1:5" ht="16.5" customHeight="1"/>
-    <row r="10" spans="1:5" ht="16.5" customHeight="1"/>
-    <row r="11" spans="1:5" ht="16.5" customHeight="1"/>
-    <row r="12" spans="1:5" ht="16.5" customHeight="1"/>
-    <row r="13" spans="1:5" ht="16.5" customHeight="1"/>
-    <row r="14" spans="1:5" ht="16.5" customHeight="1"/>
-    <row r="15" spans="1:5" ht="16.5" customHeight="1"/>
-    <row r="16" spans="1:5" ht="16.5" customHeight="1"/>
+    <row r="5" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1">
+        <v>265</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="1">
+        <v>287</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" customHeight="1"/>
+    <row r="8" spans="1:8" ht="16.5" customHeight="1"/>
+    <row r="9" spans="1:8" ht="16.5" customHeight="1"/>
+    <row r="10" spans="1:8" ht="16.5" customHeight="1"/>
+    <row r="11" spans="1:8" ht="16.5" customHeight="1"/>
+    <row r="12" spans="1:8" ht="16.5" customHeight="1"/>
+    <row r="13" spans="1:8" ht="16.5" customHeight="1"/>
+    <row r="14" spans="1:8" ht="16.5" customHeight="1"/>
+    <row r="15" spans="1:8" ht="16.5" customHeight="1"/>
+    <row r="16" spans="1:8" ht="16.5" customHeight="1"/>
     <row r="17" ht="16.5" customHeight="1"/>
     <row r="18" ht="16.5" customHeight="1"/>
   </sheetData>

--- a/CHPOUTSRCMES.Web/Data/Excel/MES_USERS.xlsx
+++ b/CHPOUTSRCMES.Web/Data/Excel/MES_USERS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>系統管理員</t>
   </si>
@@ -91,38 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>組織ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>組織</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>倉庫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SFG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>使用者</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -131,23 +99,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FTY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TCA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>力順</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -486,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F1" sqref="F1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
@@ -499,13 +451,12 @@
     <col min="3" max="3" width="10.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="15" width="6.75" style="1" customWidth="1"/>
-    <col min="16" max="26" width="8" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="11.25" style="1"/>
+    <col min="6" max="12" width="6.75" style="1" customWidth="1"/>
+    <col min="13" max="23" width="8" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="11.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" customHeight="1">
+    <row r="1" spans="1:5" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -521,17 +472,8 @@
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5" customHeight="1">
+    <row r="2" spans="1:5" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,17 +489,8 @@
       <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="1">
-        <v>265</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" customHeight="1">
+    <row r="3" spans="1:5" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -573,17 +506,8 @@
       <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="1">
-        <v>265</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" customHeight="1">
+    <row r="4" spans="1:5" ht="16.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -599,72 +523,45 @@
       <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="1">
-        <v>265</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="5" spans="1:8" ht="16.5" customHeight="1">
+    <row r="5" spans="1:5" ht="16.5" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="1">
-        <v>265</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.5" customHeight="1">
+    <row r="6" spans="1:5" ht="16.5" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="1">
-        <v>287</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.5" customHeight="1"/>
-    <row r="8" spans="1:8" ht="16.5" customHeight="1"/>
-    <row r="9" spans="1:8" ht="16.5" customHeight="1"/>
-    <row r="10" spans="1:8" ht="16.5" customHeight="1"/>
-    <row r="11" spans="1:8" ht="16.5" customHeight="1"/>
-    <row r="12" spans="1:8" ht="16.5" customHeight="1"/>
-    <row r="13" spans="1:8" ht="16.5" customHeight="1"/>
-    <row r="14" spans="1:8" ht="16.5" customHeight="1"/>
-    <row r="15" spans="1:8" ht="16.5" customHeight="1"/>
-    <row r="16" spans="1:8" ht="16.5" customHeight="1"/>
+    <row r="7" spans="1:5" ht="16.5" customHeight="1"/>
+    <row r="8" spans="1:5" ht="16.5" customHeight="1"/>
+    <row r="9" spans="1:5" ht="16.5" customHeight="1"/>
+    <row r="10" spans="1:5" ht="16.5" customHeight="1"/>
+    <row r="11" spans="1:5" ht="16.5" customHeight="1"/>
+    <row r="12" spans="1:5" ht="16.5" customHeight="1"/>
+    <row r="13" spans="1:5" ht="16.5" customHeight="1"/>
+    <row r="14" spans="1:5" ht="16.5" customHeight="1"/>
+    <row r="15" spans="1:5" ht="16.5" customHeight="1"/>
+    <row r="16" spans="1:5" ht="16.5" customHeight="1"/>
     <row r="17" ht="16.5" customHeight="1"/>
     <row r="18" ht="16.5" customHeight="1"/>
   </sheetData>

--- a/CHPOUTSRCMES.Web/Data/Excel/MES_USERS.xlsx
+++ b/CHPOUTSRCMES.Web/Data/Excel/MES_USERS.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10890"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10890" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="使用者(User)" sheetId="2" r:id="rId1"/>
+    <sheet name="使用者倉庫" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>系統管理員</t>
   </si>
@@ -88,6 +89,31 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORGANIZATION_ID</t>
+  </si>
+  <si>
+    <t>SFG</t>
+  </si>
+  <si>
+    <t>REVT</t>
+  </si>
+  <si>
+    <t>user2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一力星二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUBINVENTORY_CODE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -95,7 +121,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -108,6 +134,10 @@
       <name val="PMingLiu"/>
       <family val="1"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Dialog"/>
     </font>
   </fonts>
   <fills count="2">
@@ -130,13 +160,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -420,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
@@ -504,7 +540,23 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.5" customHeight="1"/>
+    <row r="5" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="6" spans="1:5" ht="16.5" customHeight="1"/>
     <row r="7" spans="1:5" ht="16.5" customHeight="1"/>
     <row r="8" spans="1:5" ht="16.5" customHeight="1"/>
@@ -522,4 +574,102 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="23.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4">
+        <v>265</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4">
+        <v>265</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4">
+        <v>265</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4">
+        <v>265</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4">
+        <v>265</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="4">
+        <v>265</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>